--- a/Other_Analyses/Figures and Tables for the Weighted Model_FINAL for members_Upload251021_Revised170222.xlsx
+++ b/Other_Analyses/Figures and Tables for the Weighted Model_FINAL for members_Upload251021_Revised170222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRep\albacator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRep\albacator\Other_Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA702F0-CA08-4657-A03B-EA349036E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B775878D-4936-4FA6-9934-D387A19A2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weighted Model Figures" sheetId="18" r:id="rId1"/>
@@ -587,9 +587,9 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -726,7 +726,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6CEFE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,7 +1611,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2431,6 +2437,55 @@
     <xf numFmtId="166" fontId="13" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2443,6 +2498,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,103 +2579,52 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2916,23 +2962,23 @@
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="328" t="s">
+      <c r="E5" s="345" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="328"/>
-      <c r="Q5" s="328"/>
-      <c r="R5" s="328"/>
-      <c r="S5" s="328"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="345"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
     </row>
     <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
@@ -2995,11 +3041,11 @@
       <c r="N7" s="256" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="327" t="s">
+      <c r="O7" s="344" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="327"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="344"/>
       <c r="R7" s="257" t="s">
         <v>123</v>
       </c>
@@ -3817,23 +3863,23 @@
       </c>
     </row>
     <row r="24" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="328" t="s">
+      <c r="E24" s="345" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328"/>
-      <c r="I24" s="328"/>
-      <c r="J24" s="328"/>
-      <c r="K24" s="328"/>
-      <c r="L24" s="328"/>
-      <c r="M24" s="328"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
+      <c r="F24" s="345"/>
+      <c r="G24" s="345"/>
+      <c r="H24" s="345"/>
+      <c r="I24" s="345"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="345"/>
+      <c r="P24" s="345"/>
+      <c r="Q24" s="345"/>
+      <c r="R24" s="345"/>
+      <c r="S24" s="345"/>
     </row>
     <row r="25" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="159"/>
@@ -3891,11 +3937,11 @@
       <c r="N26" s="256" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="327" t="s">
+      <c r="O26" s="344" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="327"/>
-      <c r="Q26" s="327"/>
+      <c r="P26" s="344"/>
+      <c r="Q26" s="344"/>
       <c r="R26" s="257" t="s">
         <v>127</v>
       </c>
@@ -6090,8 +6136,8 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
+      <c r="B4" s="347"/>
+      <c r="C4" s="347"/>
     </row>
     <row r="5" spans="2:20" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="150"/>
@@ -6135,7 +6181,7 @@
       <c r="D6" s="224"/>
       <c r="E6" s="224"/>
       <c r="F6" s="224"/>
-      <c r="G6" s="372"/>
+      <c r="G6" s="339"/>
       <c r="I6" s="152" t="s">
         <v>14</v>
       </c>
@@ -6149,20 +6195,20 @@
       <c r="B7" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="363">
+      <c r="C7" s="330">
         <v>895</v>
       </c>
-      <c r="D7" s="363">
+      <c r="D7" s="330">
         <v>1613</v>
       </c>
-      <c r="E7" s="363">
+      <c r="E7" s="330">
         <v>2526</v>
       </c>
-      <c r="F7" s="371">
+      <c r="F7" s="338">
         <f>'Biomass Esitmation_ 2021'!X8</f>
         <v>14362.219073708944</v>
       </c>
-      <c r="G7" s="374">
+      <c r="G7" s="341">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -6184,7 +6230,7 @@
         <f>'Biomass Esitmation_ 2021'!X8</f>
         <v>14362.219073708944</v>
       </c>
-      <c r="N7" s="370">
+      <c r="N7" s="337">
         <f>'Index of Fisheries Dependency '!C5</f>
         <v>1E-3</v>
       </c>
@@ -6193,20 +6239,20 @@
       <c r="B8" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="363">
+      <c r="C8" s="330">
         <v>7390.333333333333</v>
       </c>
-      <c r="D8" s="363">
+      <c r="D8" s="330">
         <v>6476.8</v>
       </c>
-      <c r="E8" s="363">
+      <c r="E8" s="330">
         <v>9698</v>
       </c>
-      <c r="F8" s="371">
+      <c r="F8" s="338">
         <f>'Biomass Esitmation_ 2021'!X9</f>
         <v>8070.9477889622094</v>
       </c>
-      <c r="G8" s="375">
+      <c r="G8" s="342">
         <v>0.02</v>
       </c>
       <c r="I8" s="153" t="s">
@@ -6225,7 +6271,7 @@
         <f>'Biomass Esitmation_ 2021'!X9</f>
         <v>8070.9477889622094</v>
       </c>
-      <c r="N8" s="370">
+      <c r="N8" s="337">
         <f>'Index of Fisheries Dependency '!C6</f>
         <v>0.02</v>
       </c>
@@ -6236,20 +6282,20 @@
       <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="363">
+      <c r="C9" s="330">
         <v>5761.666666666667</v>
       </c>
-      <c r="D9" s="363">
+      <c r="D9" s="330">
         <v>5698.4</v>
       </c>
-      <c r="E9" s="363">
+      <c r="E9" s="330">
         <v>7294</v>
       </c>
-      <c r="F9" s="371">
+      <c r="F9" s="338">
         <f>'Biomass Esitmation_ 2021'!X10</f>
         <v>6252.8125438928273</v>
       </c>
-      <c r="G9" s="375">
+      <c r="G9" s="342">
         <v>1.6E-2</v>
       </c>
       <c r="I9" s="153" t="s">
@@ -6268,7 +6314,7 @@
         <f>'Biomass Esitmation_ 2021'!X10</f>
         <v>6252.8125438928273</v>
       </c>
-      <c r="N9" s="370">
+      <c r="N9" s="337">
         <f>'Index of Fisheries Dependency '!C7</f>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -6279,20 +6325,20 @@
       <c r="B10" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="363">
+      <c r="C10" s="330">
         <v>2873.3333333333335</v>
       </c>
-      <c r="D10" s="363">
+      <c r="D10" s="330">
         <v>2219.1999999999998</v>
       </c>
-      <c r="E10" s="363">
+      <c r="E10" s="330">
         <v>2500</v>
       </c>
-      <c r="F10" s="371">
+      <c r="F10" s="338">
         <f>'Biomass Esitmation_ 2021'!X11</f>
         <v>1949.3133959176166</v>
       </c>
-      <c r="G10" s="375">
+      <c r="G10" s="342">
         <v>0.18</v>
       </c>
       <c r="I10" s="153" t="s">
@@ -6311,7 +6357,7 @@
         <f>'Biomass Esitmation_ 2021'!X11</f>
         <v>1949.3133959176166</v>
       </c>
-      <c r="N10" s="370">
+      <c r="N10" s="337">
         <f>'Index of Fisheries Dependency '!C8</f>
         <v>0.17799999999999999</v>
       </c>
@@ -6322,20 +6368,20 @@
       <c r="B11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="363">
+      <c r="C11" s="330">
         <v>370.66666666666669</v>
       </c>
-      <c r="D11" s="363">
+      <c r="D11" s="330">
         <v>341.4</v>
       </c>
-      <c r="E11" s="363">
+      <c r="E11" s="330">
         <v>2500</v>
       </c>
-      <c r="F11" s="371">
+      <c r="F11" s="338">
         <f>'Biomass Esitmation_ 2021'!X12</f>
         <v>1552.9168402014129</v>
       </c>
-      <c r="G11" s="375">
+      <c r="G11" s="342">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="I11" s="153" t="s">
@@ -6354,7 +6400,7 @@
         <f>'Biomass Esitmation_ 2021'!X12</f>
         <v>1552.9168402014129</v>
       </c>
-      <c r="N11" s="370">
+      <c r="N11" s="337">
         <f>'Index of Fisheries Dependency '!C9</f>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -6365,20 +6411,20 @@
       <c r="B12" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="363">
+      <c r="C12" s="330">
         <v>574.33333333333337</v>
       </c>
-      <c r="D12" s="363">
+      <c r="D12" s="330">
         <v>565</v>
       </c>
-      <c r="E12" s="363">
+      <c r="E12" s="330">
         <v>6700</v>
       </c>
-      <c r="F12" s="371">
+      <c r="F12" s="338">
         <f>'Biomass Esitmation_ 2021'!X13</f>
         <v>12101.005476003347</v>
       </c>
-      <c r="G12" s="375">
+      <c r="G12" s="342">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="I12" s="153" t="s">
@@ -6397,7 +6443,7 @@
         <f>'Biomass Esitmation_ 2021'!X13</f>
         <v>12101.005476003347</v>
       </c>
-      <c r="N12" s="370">
+      <c r="N12" s="337">
         <f>'Index of Fisheries Dependency '!C10</f>
         <v>1.1666666666666668E-3</v>
       </c>
@@ -6408,20 +6454,20 @@
       <c r="B13" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="363">
+      <c r="C13" s="330">
         <v>1416.3333333333333</v>
       </c>
-      <c r="D13" s="363">
+      <c r="D13" s="330">
         <v>1790.8</v>
       </c>
-      <c r="E13" s="363">
+      <c r="E13" s="330">
         <v>2500</v>
       </c>
-      <c r="F13" s="371">
+      <c r="F13" s="338">
         <f>'Biomass Esitmation_ 2021'!X14</f>
         <v>4947.2551019375442</v>
       </c>
-      <c r="G13" s="375">
+      <c r="G13" s="342">
         <v>0.02</v>
       </c>
       <c r="I13" s="153" t="s">
@@ -6440,7 +6486,7 @@
         <f>'Biomass Esitmation_ 2021'!X14</f>
         <v>4947.2551019375442</v>
       </c>
-      <c r="N13" s="370">
+      <c r="N13" s="337">
         <f>'Index of Fisheries Dependency '!C11</f>
         <v>0.02</v>
       </c>
@@ -6451,20 +6497,20 @@
       <c r="B14" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="363">
+      <c r="C14" s="330">
         <v>10119</v>
       </c>
-      <c r="D14" s="363">
+      <c r="D14" s="330">
         <v>9498.2000000000007</v>
       </c>
-      <c r="E14" s="363">
+      <c r="E14" s="330">
         <v>14500</v>
       </c>
-      <c r="F14" s="371">
+      <c r="F14" s="338">
         <f>'Biomass Esitmation_ 2021'!X15</f>
         <v>5068.450419331054</v>
       </c>
-      <c r="G14" s="375">
+      <c r="G14" s="342">
         <v>0.08</v>
       </c>
       <c r="I14" s="153" t="s">
@@ -6483,7 +6529,7 @@
         <f>'Biomass Esitmation_ 2021'!X15</f>
         <v>5068.450419331054</v>
       </c>
-      <c r="N14" s="370">
+      <c r="N14" s="337">
         <f>'Index of Fisheries Dependency '!C12</f>
         <v>8.0000000000000016E-2</v>
       </c>
@@ -6494,20 +6540,20 @@
       <c r="B15" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="363">
+      <c r="C15" s="330">
         <v>2094.6666666666702</v>
       </c>
-      <c r="D15" s="364">
+      <c r="D15" s="331">
         <v>1715.6</v>
       </c>
-      <c r="E15" s="363">
+      <c r="E15" s="330">
         <v>2500</v>
       </c>
-      <c r="F15" s="371">
+      <c r="F15" s="338">
         <f>'Biomass Esitmation_ 2021'!X16</f>
         <v>589.58132194883137</v>
       </c>
-      <c r="G15" s="375">
+      <c r="G15" s="342">
         <v>0.11</v>
       </c>
       <c r="I15" s="153" t="s">
@@ -6526,7 +6572,7 @@
         <f>'Biomass Esitmation_ 2021'!X16</f>
         <v>589.58132194883137</v>
       </c>
-      <c r="N15" s="370">
+      <c r="N15" s="337">
         <f>'Index of Fisheries Dependency '!C13</f>
         <v>0.11235445544554455</v>
       </c>
@@ -6537,20 +6583,20 @@
       <c r="B16" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="365">
+      <c r="C16" s="332">
         <v>1263</v>
       </c>
-      <c r="D16" s="368">
+      <c r="D16" s="335">
         <v>1030.8</v>
       </c>
-      <c r="E16" s="366">
+      <c r="E16" s="333">
         <v>2500</v>
       </c>
-      <c r="F16" s="371">
+      <c r="F16" s="338">
         <f>'Biomass Esitmation_ 2021'!X17</f>
         <v>3219.5255257258273</v>
       </c>
-      <c r="G16" s="375">
+      <c r="G16" s="342">
         <v>0.05</v>
       </c>
       <c r="I16" s="153" t="s">
@@ -6569,7 +6615,7 @@
         <f>'Biomass Esitmation_ 2021'!X17</f>
         <v>3219.5255257258273</v>
       </c>
-      <c r="N16" s="370">
+      <c r="N16" s="337">
         <f>'Index of Fisheries Dependency '!C14</f>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -6580,20 +6626,20 @@
       <c r="B17" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="363">
+      <c r="C17" s="330">
         <v>1480</v>
       </c>
-      <c r="D17" s="367">
+      <c r="D17" s="334">
         <v>1362</v>
       </c>
-      <c r="E17" s="363">
+      <c r="E17" s="330">
         <v>2500</v>
       </c>
-      <c r="F17" s="371">
+      <c r="F17" s="338">
         <f>'Biomass Esitmation_ 2021'!X18</f>
         <v>1545.5645318252782</v>
       </c>
-      <c r="G17" s="375">
+      <c r="G17" s="342">
         <v>0.08</v>
       </c>
       <c r="I17" s="153" t="s">
@@ -6612,7 +6658,7 @@
         <f>'Biomass Esitmation_ 2021'!X18</f>
         <v>1545.5645318252782</v>
       </c>
-      <c r="N17" s="370">
+      <c r="N17" s="337">
         <f>'Index of Fisheries Dependency '!C15</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -6623,20 +6669,20 @@
       <c r="B18" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="363">
+      <c r="C18" s="330">
         <v>7434.666666666667</v>
       </c>
-      <c r="D18" s="363">
+      <c r="D18" s="330">
         <v>7462.6</v>
       </c>
-      <c r="E18" s="363">
+      <c r="E18" s="330">
         <v>8376</v>
       </c>
-      <c r="F18" s="371">
+      <c r="F18" s="338">
         <f>'Biomass Esitmation_ 2021'!X19</f>
         <v>3043.0785532184341</v>
       </c>
-      <c r="G18" s="375">
+      <c r="G18" s="342">
         <v>0.02</v>
       </c>
       <c r="I18" s="153" t="s">
@@ -6655,7 +6701,7 @@
         <f>'Biomass Esitmation_ 2021'!X19</f>
         <v>3043.0785532184341</v>
       </c>
-      <c r="N18" s="370">
+      <c r="N18" s="337">
         <f>'Index of Fisheries Dependency '!C16</f>
         <v>2.3E-2</v>
       </c>
@@ -6666,20 +6712,20 @@
       <c r="B19" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="364">
+      <c r="C19" s="331">
         <v>2069.6666666666665</v>
       </c>
-      <c r="D19" s="364">
+      <c r="D19" s="331">
         <v>2582.6</v>
       </c>
-      <c r="E19" s="364">
+      <c r="E19" s="331">
         <v>4824</v>
       </c>
-      <c r="F19" s="371">
+      <c r="F19" s="338">
         <f>'Biomass Esitmation_ 2021'!X20</f>
         <v>636.90412155866284</v>
       </c>
-      <c r="G19" s="376">
+      <c r="G19" s="343">
         <v>0.04</v>
       </c>
       <c r="I19" s="154" t="s">
@@ -6698,7 +6744,7 @@
         <f>'Biomass Esitmation_ 2021'!X20</f>
         <v>636.90412155866284</v>
       </c>
-      <c r="N19" s="370">
+      <c r="N19" s="337">
         <f>'Index of Fisheries Dependency '!C17</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -6725,7 +6771,7 @@
         <f>SUM(F6:F19)</f>
         <v>63339.574694231989</v>
       </c>
-      <c r="G20" s="373">
+      <c r="G20" s="340">
         <f>SUM(G7:G19)</f>
         <v>0.66439999999999999</v>
       </c>
@@ -6756,16 +6802,16 @@
       <c r="T20" s="218"/>
     </row>
     <row r="21" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="329" t="s">
+      <c r="B21" s="346" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="329"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="329"/>
+      <c r="C21" s="346"/>
+      <c r="D21" s="346"/>
+      <c r="E21" s="346"/>
+      <c r="F21" s="346"/>
+      <c r="G21" s="346"/>
+      <c r="H21" s="346"/>
+      <c r="I21" s="346"/>
       <c r="S21" s="218"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
@@ -7104,31 +7150,31 @@
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="362" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="337" t="s">
+      <c r="H4" s="368" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="338"/>
-      <c r="P4" s="338"/>
-      <c r="Q4" s="338"/>
-      <c r="R4" s="338"/>
-      <c r="S4" s="338"/>
-      <c r="T4" s="338"/>
-      <c r="U4" s="338"/>
-      <c r="V4" s="338"/>
-      <c r="W4" s="339"/>
-      <c r="X4" s="339"/>
-      <c r="Y4" s="339"/>
-      <c r="Z4" s="339"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="369"/>
+      <c r="P4" s="369"/>
+      <c r="Q4" s="369"/>
+      <c r="R4" s="369"/>
+      <c r="S4" s="369"/>
+      <c r="T4" s="369"/>
+      <c r="U4" s="369"/>
+      <c r="V4" s="369"/>
+      <c r="W4" s="370"/>
+      <c r="X4" s="370"/>
+      <c r="Y4" s="370"/>
+      <c r="Z4" s="370"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
       <c r="AC4" s="37"/>
@@ -7179,7 +7225,7 @@
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="332"/>
+      <c r="F5" s="363"/>
       <c r="G5" s="54" t="s">
         <v>53</v>
       </c>
@@ -8112,11 +8158,11 @@
         <f>SUM(AA14,R14,S14)/3</f>
         <v>574.33333333333337</v>
       </c>
-      <c r="AF12" s="362">
+      <c r="AF12" s="329">
         <f>SUM(N14,AA14,R14,S14,Q14)/5</f>
         <v>528.20000000000005</v>
       </c>
-      <c r="AG12" s="360"/>
+      <c r="AG12" s="327"/>
       <c r="AH12" s="303"/>
       <c r="AI12" s="304"/>
       <c r="AJ12" s="90"/>
@@ -8236,11 +8282,11 @@
         <f>SUM(X16,Y16,Z16)/3</f>
         <v>1416.3333333333333</v>
       </c>
-      <c r="AF13" s="362">
+      <c r="AF13" s="329">
         <f>SUM(M16,O16,Y16,N16,X16)/5</f>
         <v>1737.6</v>
       </c>
-      <c r="AG13" s="360"/>
+      <c r="AG13" s="327"/>
       <c r="AH13" s="303"/>
       <c r="AI13" s="304"/>
       <c r="AJ13" s="90"/>
@@ -8360,7 +8406,7 @@
         <f>SUM(V17,U17,T17)/3</f>
         <v>10119</v>
       </c>
-      <c r="AF14" s="361">
+      <c r="AF14" s="328">
         <f>SUM(V17,Q17,U17,T17,Z17)/5</f>
         <v>9498.2000000000007</v>
       </c>
@@ -9547,33 +9593,33 @@
       <c r="BJ24" s="33"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="F25" s="333" t="s">
+      <c r="F25" s="364" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="340" t="s">
+      <c r="H25" s="371" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="341"/>
-      <c r="J25" s="341"/>
-      <c r="K25" s="341"/>
-      <c r="L25" s="341"/>
-      <c r="M25" s="341"/>
-      <c r="N25" s="341"/>
-      <c r="O25" s="341"/>
-      <c r="P25" s="341"/>
-      <c r="Q25" s="341"/>
-      <c r="R25" s="341"/>
-      <c r="S25" s="341"/>
-      <c r="T25" s="341"/>
-      <c r="U25" s="341"/>
-      <c r="V25" s="341"/>
-      <c r="W25" s="341"/>
-      <c r="X25" s="341"/>
-      <c r="Y25" s="341"/>
-      <c r="Z25" s="341"/>
-      <c r="AA25" s="341"/>
-      <c r="AB25" s="341"/>
+      <c r="I25" s="372"/>
+      <c r="J25" s="372"/>
+      <c r="K25" s="372"/>
+      <c r="L25" s="372"/>
+      <c r="M25" s="372"/>
+      <c r="N25" s="372"/>
+      <c r="O25" s="372"/>
+      <c r="P25" s="372"/>
+      <c r="Q25" s="372"/>
+      <c r="R25" s="372"/>
+      <c r="S25" s="372"/>
+      <c r="T25" s="372"/>
+      <c r="U25" s="372"/>
+      <c r="V25" s="372"/>
+      <c r="W25" s="372"/>
+      <c r="X25" s="372"/>
+      <c r="Y25" s="372"/>
+      <c r="Z25" s="372"/>
+      <c r="AA25" s="372"/>
+      <c r="AB25" s="372"/>
       <c r="AC25" s="80"/>
       <c r="AD25" s="37"/>
       <c r="AE25" s="37"/>
@@ -9604,7 +9650,7 @@
       <c r="BJ25" s="33"/>
     </row>
     <row r="26" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="334"/>
+      <c r="F26" s="365"/>
       <c r="G26" s="75"/>
       <c r="H26" s="91">
         <v>2000</v>
@@ -10070,19 +10116,19 @@
     <row r="32" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AC32" s="12"/>
       <c r="AD32" s="98"/>
-      <c r="AE32" s="352" t="s">
+      <c r="AE32" s="348" t="s">
         <v>130</v>
       </c>
-      <c r="AF32" s="354" t="s">
+      <c r="AF32" s="350" t="s">
         <v>131</v>
       </c>
-      <c r="AG32" s="356" t="s">
+      <c r="AG32" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="AH32" s="346" t="s">
+      <c r="AH32" s="356" t="s">
         <v>65</v>
       </c>
-      <c r="AI32" s="348" t="s">
+      <c r="AI32" s="358" t="s">
         <v>66</v>
       </c>
       <c r="AK32" s="33"/>
@@ -10113,41 +10159,41 @@
       <c r="BJ32" s="33"/>
     </row>
     <row r="33" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="335" t="s">
+      <c r="F33" s="366" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="342" t="s">
+      <c r="H33" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="343"/>
-      <c r="J33" s="343"/>
-      <c r="K33" s="343"/>
-      <c r="L33" s="343"/>
-      <c r="M33" s="343"/>
-      <c r="N33" s="343"/>
-      <c r="O33" s="343"/>
-      <c r="P33" s="343"/>
-      <c r="Q33" s="343"/>
-      <c r="R33" s="343"/>
-      <c r="S33" s="343"/>
-      <c r="T33" s="343"/>
-      <c r="U33" s="343"/>
-      <c r="V33" s="343"/>
-      <c r="W33" s="343"/>
-      <c r="X33" s="343"/>
-      <c r="Y33" s="343"/>
-      <c r="Z33" s="343"/>
-      <c r="AA33" s="343"/>
-      <c r="AB33" s="343"/>
+      <c r="I33" s="374"/>
+      <c r="J33" s="374"/>
+      <c r="K33" s="374"/>
+      <c r="L33" s="374"/>
+      <c r="M33" s="374"/>
+      <c r="N33" s="374"/>
+      <c r="O33" s="374"/>
+      <c r="P33" s="374"/>
+      <c r="Q33" s="374"/>
+      <c r="R33" s="374"/>
+      <c r="S33" s="374"/>
+      <c r="T33" s="374"/>
+      <c r="U33" s="374"/>
+      <c r="V33" s="374"/>
+      <c r="W33" s="374"/>
+      <c r="X33" s="374"/>
+      <c r="Y33" s="374"/>
+      <c r="Z33" s="374"/>
+      <c r="AA33" s="374"/>
+      <c r="AB33" s="374"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="70"/>
-      <c r="AE33" s="353"/>
-      <c r="AF33" s="355"/>
-      <c r="AG33" s="357"/>
-      <c r="AH33" s="347"/>
-      <c r="AI33" s="349"/>
-      <c r="AJ33" s="350" t="s">
+      <c r="AE33" s="349"/>
+      <c r="AF33" s="351"/>
+      <c r="AG33" s="353"/>
+      <c r="AH33" s="357"/>
+      <c r="AI33" s="359"/>
+      <c r="AJ33" s="360" t="s">
         <v>61</v>
       </c>
       <c r="AK33" s="100"/>
@@ -10164,11 +10210,11 @@
       <c r="AV33" s="100"/>
       <c r="AW33" s="100"/>
       <c r="AX33" s="71"/>
-      <c r="AY33" s="344"/>
-      <c r="AZ33" s="344"/>
-      <c r="BA33" s="344"/>
-      <c r="BB33" s="345"/>
-      <c r="BC33" s="344"/>
+      <c r="AY33" s="354"/>
+      <c r="AZ33" s="354"/>
+      <c r="BA33" s="354"/>
+      <c r="BB33" s="355"/>
+      <c r="BC33" s="354"/>
       <c r="BD33" s="33"/>
       <c r="BE33" s="71"/>
       <c r="BF33" s="71"/>
@@ -10178,7 +10224,7 @@
       <c r="BJ33" s="71"/>
     </row>
     <row r="34" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F34" s="336"/>
+      <c r="F34" s="367"/>
       <c r="G34" s="27" t="s">
         <v>53</v>
       </c>
@@ -10254,7 +10300,7 @@
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
       <c r="AI34" s="110"/>
-      <c r="AJ34" s="351"/>
+      <c r="AJ34" s="361"/>
       <c r="AK34" s="100"/>
       <c r="AL34" s="24"/>
       <c r="AM34" s="24"/>
@@ -10269,11 +10315,11 @@
       <c r="AV34" s="100"/>
       <c r="AW34" s="100"/>
       <c r="AX34" s="128"/>
-      <c r="AY34" s="344"/>
-      <c r="AZ34" s="344"/>
-      <c r="BA34" s="344"/>
-      <c r="BB34" s="345"/>
-      <c r="BC34" s="344"/>
+      <c r="AY34" s="354"/>
+      <c r="AZ34" s="354"/>
+      <c r="BA34" s="354"/>
+      <c r="BB34" s="355"/>
+      <c r="BC34" s="354"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="129"/>
       <c r="BF34" s="33"/>
@@ -12981,23 +13027,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AZ33:AZ34"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H4:Z4"/>
+    <mergeCell ref="H25:AB25"/>
+    <mergeCell ref="H33:AB33"/>
     <mergeCell ref="BA33:BA34"/>
     <mergeCell ref="BC33:BC34"/>
     <mergeCell ref="BB33:BB34"/>
     <mergeCell ref="AH32:AH33"/>
     <mergeCell ref="AI32:AI33"/>
     <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H4:Z4"/>
-    <mergeCell ref="H25:AB25"/>
-    <mergeCell ref="H33:AB33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AZ33:AZ34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
@@ -13295,7 +13341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13311,10 +13357,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="I2" s="358" t="s">
+      <c r="I2" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="358"/>
+      <c r="J2" s="375"/>
       <c r="M2" s="274"/>
     </row>
     <row r="3" spans="2:33" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -13360,7 +13406,7 @@
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="369">
+      <c r="C5" s="336">
         <f>I5+J5</f>
         <v>1E-3</v>
       </c>
@@ -13398,7 +13444,7 @@
       <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="369">
+      <c r="C6" s="336">
         <f t="shared" ref="C6:C17" si="0">I6+J6</f>
         <v>0.02</v>
       </c>
@@ -13434,7 +13480,7 @@
       <c r="B7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="369">
+      <c r="C7" s="336">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -13470,7 +13516,7 @@
       <c r="B8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="369">
+      <c r="C8" s="336">
         <f t="shared" si="0"/>
         <v>0.17799999999999999</v>
       </c>
@@ -13506,7 +13552,7 @@
       <c r="B9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="369">
+      <c r="C9" s="336">
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -13541,7 +13587,7 @@
       <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="369">
+      <c r="C10" s="336">
         <f t="shared" si="0"/>
         <v>1.1666666666666668E-3</v>
       </c>
@@ -13576,7 +13622,7 @@
       <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="369">
+      <c r="C11" s="336">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
@@ -13611,7 +13657,7 @@
       <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="369">
+      <c r="C12" s="336">
         <f t="shared" si="0"/>
         <v>8.0000000000000016E-2</v>
       </c>
@@ -13646,7 +13692,7 @@
       <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="369">
+      <c r="C13" s="336">
         <f t="shared" si="0"/>
         <v>0.11235445544554455</v>
       </c>
@@ -13681,7 +13727,7 @@
       <c r="B14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="369">
+      <c r="C14" s="336">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -13714,7 +13760,7 @@
       <c r="B15" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="369">
+      <c r="C15" s="336">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13747,7 +13793,7 @@
       <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="369">
+      <c r="C16" s="336">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
@@ -13780,7 +13826,7 @@
       <c r="B17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="369">
+      <c r="C17" s="336">
         <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -13886,15 +13932,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -13952,13 +13998,13 @@
       <c r="D4" s="174"/>
       <c r="E4" s="175"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="176" t="s">
+      <c r="G4" s="377"/>
+      <c r="H4" s="378" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="174"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="379"/>
+      <c r="J4" s="380"/>
+      <c r="K4" s="381"/>
       <c r="L4" s="173"/>
       <c r="M4" s="176" t="s">
         <v>75</v>
@@ -13985,15 +14031,15 @@
       </c>
       <c r="E5" s="178"/>
       <c r="F5" s="51"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="382"/>
+      <c r="H5" s="383" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="384" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="178"/>
-      <c r="K5" s="51"/>
+      <c r="J5" s="385"/>
+      <c r="K5" s="381"/>
       <c r="L5" s="177"/>
       <c r="M5" s="80" t="s">
         <v>80</v>
@@ -14028,19 +14074,19 @@
         <v>85</v>
       </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="386" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="181" t="s">
+      <c r="H6" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="181" t="s">
+      <c r="I6" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="387" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="196" t="s">
+      <c r="K6" s="388" t="s">
         <v>104</v>
       </c>
       <c r="L6" s="181" t="s">
@@ -14100,19 +14146,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="173">
-        <v>0</v>
-      </c>
-      <c r="H7" s="174">
+      <c r="G7" s="377">
+        <v>0</v>
+      </c>
+      <c r="H7" s="379">
         <v>1980.9483085782481</v>
       </c>
-      <c r="I7" s="174">
-        <v>0</v>
-      </c>
-      <c r="J7" s="175">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51"/>
+      <c r="I7" s="379">
+        <v>0</v>
+      </c>
+      <c r="J7" s="380">
+        <v>0</v>
+      </c>
+      <c r="K7" s="381"/>
       <c r="L7" s="173">
         <v>0</v>
       </c>
@@ -14184,19 +14230,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="188"/>
-      <c r="G8" s="185">
+      <c r="G8" s="382">
         <v>21.276008074370427</v>
       </c>
-      <c r="H8" s="186">
+      <c r="H8" s="383">
         <v>7449.5476978822117</v>
       </c>
-      <c r="I8" s="186">
+      <c r="I8" s="383">
         <v>6891.3953677523632</v>
       </c>
-      <c r="J8" s="187">
-        <v>0</v>
-      </c>
-      <c r="K8" s="188">
+      <c r="J8" s="385">
+        <v>0</v>
+      </c>
+      <c r="K8" s="381">
         <f t="shared" ref="K8:K40" si="0">SUM(G8:J8)</f>
         <v>14362.219073708944</v>
       </c>
@@ -14280,19 +14326,19 @@
         <v>1932576.5869986999</v>
       </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="177">
-        <v>0</v>
-      </c>
-      <c r="H9" s="80">
-        <v>0</v>
-      </c>
-      <c r="I9" s="80">
-        <v>0</v>
-      </c>
-      <c r="J9" s="178">
+      <c r="G9" s="382">
+        <v>0</v>
+      </c>
+      <c r="H9" s="383">
+        <v>0</v>
+      </c>
+      <c r="I9" s="383">
+        <v>0</v>
+      </c>
+      <c r="J9" s="385">
         <v>5678.332560035723</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="381"/>
       <c r="L9" s="177">
         <v>0</v>
       </c>
@@ -14370,19 +14416,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="188"/>
-      <c r="G10" s="185">
+      <c r="G10" s="382">
         <v>663.89909118799892</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="383">
         <v>7382.7177965774135</v>
       </c>
-      <c r="I10" s="186">
+      <c r="I10" s="383">
         <v>24.330901196796564</v>
       </c>
-      <c r="J10" s="187">
-        <v>0</v>
-      </c>
-      <c r="K10" s="188">
+      <c r="J10" s="385">
+        <v>0</v>
+      </c>
+      <c r="K10" s="381">
         <f t="shared" si="0"/>
         <v>8070.9477889622094</v>
       </c>
@@ -14466,19 +14512,19 @@
         <v>729763.35120520496</v>
       </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="177">
-        <v>0</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-      <c r="I11" s="80">
-        <v>0</v>
-      </c>
-      <c r="J11" s="178">
+      <c r="G11" s="382">
+        <v>0</v>
+      </c>
+      <c r="H11" s="383">
+        <v>0</v>
+      </c>
+      <c r="I11" s="383">
+        <v>0</v>
+      </c>
+      <c r="J11" s="385">
         <v>2144.2042846564236</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="381"/>
       <c r="L11" s="177">
         <v>0</v>
       </c>
@@ -14557,19 +14603,19 @@
         <v>162680.83660167901</v>
       </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="177">
-        <v>0</v>
-      </c>
-      <c r="H12" s="80">
-        <v>0</v>
-      </c>
-      <c r="I12" s="80">
-        <v>0</v>
-      </c>
-      <c r="J12" s="178">
+      <c r="G12" s="382">
+        <v>0</v>
+      </c>
+      <c r="H12" s="383">
+        <v>0</v>
+      </c>
+      <c r="I12" s="383">
+        <v>0</v>
+      </c>
+      <c r="J12" s="385">
         <v>477.99186722207071</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="381"/>
       <c r="L12" s="177">
         <v>0</v>
       </c>
@@ -14647,19 +14693,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="188"/>
-      <c r="G13" s="185">
+      <c r="G13" s="382">
         <v>5.8553870261361709</v>
       </c>
-      <c r="H13" s="186">
+      <c r="H13" s="383">
         <v>6243.4502648762327</v>
       </c>
-      <c r="I13" s="186">
+      <c r="I13" s="383">
         <v>3.5068919904588522</v>
       </c>
-      <c r="J13" s="187">
-        <v>0</v>
-      </c>
-      <c r="K13" s="188">
+      <c r="J13" s="385">
+        <v>0</v>
+      </c>
+      <c r="K13" s="381">
         <f t="shared" si="0"/>
         <v>6252.8125438928273</v>
       </c>
@@ -14743,19 +14789,19 @@
         <v>12860.0521588756</v>
       </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="177">
+      <c r="G14" s="382">
         <v>645.07536134366524</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="383">
         <v>17753.24252411292</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="383">
         <v>2381.4896642584686</v>
       </c>
-      <c r="J14" s="178">
+      <c r="J14" s="385">
         <v>37.785645023728179</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="381"/>
       <c r="L14" s="177">
         <v>1453.4990413712728</v>
       </c>
@@ -14833,19 +14879,19 @@
         <v>426060.01974229998</v>
       </c>
       <c r="F15" s="51"/>
-      <c r="G15" s="177">
-        <v>0</v>
-      </c>
-      <c r="H15" s="80">
-        <v>0</v>
-      </c>
-      <c r="I15" s="80">
-        <v>0</v>
-      </c>
-      <c r="J15" s="178">
+      <c r="G15" s="382">
+        <v>0</v>
+      </c>
+      <c r="H15" s="383">
+        <v>0</v>
+      </c>
+      <c r="I15" s="383">
+        <v>0</v>
+      </c>
+      <c r="J15" s="385">
         <v>1251.8574937251853</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="381"/>
       <c r="L15" s="177">
         <v>0</v>
       </c>
@@ -14923,19 +14969,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="188"/>
-      <c r="G16" s="185">
+      <c r="G16" s="382">
         <v>875.98301831106301</v>
       </c>
-      <c r="H16" s="186">
-        <v>0</v>
-      </c>
-      <c r="I16" s="186">
-        <v>0</v>
-      </c>
-      <c r="J16" s="187">
-        <v>0</v>
-      </c>
-      <c r="K16" s="188">
+      <c r="H16" s="383">
+        <v>0</v>
+      </c>
+      <c r="I16" s="383">
+        <v>0</v>
+      </c>
+      <c r="J16" s="385">
+        <v>0</v>
+      </c>
+      <c r="K16" s="381">
         <f t="shared" si="0"/>
         <v>875.98301831106301</v>
       </c>
@@ -15019,19 +15065,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="51"/>
-      <c r="G17" s="177">
+      <c r="G17" s="382">
         <v>222.72683575823527</v>
       </c>
-      <c r="H17" s="80">
-        <v>0</v>
-      </c>
-      <c r="I17" s="80">
-        <v>0</v>
-      </c>
-      <c r="J17" s="178">
-        <v>0</v>
-      </c>
-      <c r="K17" s="51"/>
+      <c r="H17" s="383">
+        <v>0</v>
+      </c>
+      <c r="I17" s="383">
+        <v>0</v>
+      </c>
+      <c r="J17" s="385">
+        <v>0</v>
+      </c>
+      <c r="K17" s="381"/>
       <c r="L17" s="177">
         <v>501.85336731498933</v>
       </c>
@@ -15109,19 +15155,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="177">
+      <c r="G18" s="382">
         <v>72.903933669393993</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="383">
         <v>2.0377959066973648</v>
       </c>
-      <c r="I18" s="80">
-        <v>0</v>
-      </c>
-      <c r="J18" s="178">
-        <v>0</v>
-      </c>
-      <c r="K18" s="51"/>
+      <c r="I18" s="383">
+        <v>0</v>
+      </c>
+      <c r="J18" s="385">
+        <v>0</v>
+      </c>
+      <c r="K18" s="381"/>
       <c r="L18" s="177">
         <v>164.26886539262119</v>
       </c>
@@ -15199,19 +15245,19 @@
         <v>450960.41783254</v>
       </c>
       <c r="F19" s="51"/>
-      <c r="G19" s="177">
-        <v>0</v>
-      </c>
-      <c r="H19" s="80">
-        <v>0</v>
-      </c>
-      <c r="I19" s="80">
-        <v>0</v>
-      </c>
-      <c r="J19" s="178">
+      <c r="G19" s="382">
+        <v>0</v>
+      </c>
+      <c r="H19" s="383">
+        <v>0</v>
+      </c>
+      <c r="I19" s="383">
+        <v>0</v>
+      </c>
+      <c r="J19" s="385">
         <v>1325.0203076518742</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="381"/>
       <c r="L19" s="177">
         <v>0</v>
       </c>
@@ -15289,19 +15335,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="51"/>
-      <c r="G20" s="177">
+      <c r="G20" s="382">
         <v>335.63348600541468</v>
       </c>
-      <c r="H20" s="80">
-        <v>0</v>
-      </c>
-      <c r="I20" s="80">
-        <v>0</v>
-      </c>
-      <c r="J20" s="178">
-        <v>0</v>
-      </c>
-      <c r="K20" s="51"/>
+      <c r="H20" s="383">
+        <v>0</v>
+      </c>
+      <c r="I20" s="383">
+        <v>0</v>
+      </c>
+      <c r="J20" s="385">
+        <v>0</v>
+      </c>
+      <c r="K20" s="381"/>
       <c r="L20" s="177">
         <v>756.25729859657349</v>
       </c>
@@ -15379,19 +15425,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="51"/>
-      <c r="G21" s="177">
+      <c r="G21" s="382">
         <v>1214.3518985926287</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="383">
         <v>1427.5248956985968</v>
       </c>
-      <c r="I21" s="80">
-        <v>0</v>
-      </c>
-      <c r="J21" s="178">
-        <v>0</v>
-      </c>
-      <c r="K21" s="51"/>
+      <c r="I21" s="383">
+        <v>0</v>
+      </c>
+      <c r="J21" s="385">
+        <v>0</v>
+      </c>
+      <c r="K21" s="381"/>
       <c r="L21" s="177">
         <v>2736.2063818640127</v>
       </c>
@@ -15471,19 +15517,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="188"/>
-      <c r="G22" s="185">
+      <c r="G22" s="382">
         <v>90.413620543311666</v>
       </c>
-      <c r="H22" s="186">
-        <v>0</v>
-      </c>
-      <c r="I22" s="186">
-        <v>0</v>
-      </c>
-      <c r="J22" s="187">
-        <v>0</v>
-      </c>
-      <c r="K22" s="188">
+      <c r="H22" s="383">
+        <v>0</v>
+      </c>
+      <c r="I22" s="383">
+        <v>0</v>
+      </c>
+      <c r="J22" s="385">
+        <v>0</v>
+      </c>
+      <c r="K22" s="381">
         <f t="shared" si="0"/>
         <v>90.413620543311666</v>
       </c>
@@ -15545,19 +15591,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="188"/>
-      <c r="G23" s="185">
+      <c r="G23" s="382">
         <v>274.65273322451839</v>
       </c>
-      <c r="H23" s="186">
-        <v>0</v>
-      </c>
-      <c r="I23" s="186">
-        <v>0</v>
-      </c>
-      <c r="J23" s="187">
-        <v>0</v>
-      </c>
-      <c r="K23" s="188">
+      <c r="H23" s="383">
+        <v>0</v>
+      </c>
+      <c r="I23" s="383">
+        <v>0</v>
+      </c>
+      <c r="J23" s="385">
+        <v>0</v>
+      </c>
+      <c r="K23" s="381">
         <f t="shared" si="0"/>
         <v>274.65273322451839</v>
       </c>
@@ -15611,19 +15657,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="188"/>
-      <c r="G24" s="185">
-        <v>0</v>
-      </c>
-      <c r="H24" s="186">
+      <c r="G24" s="382">
+        <v>0</v>
+      </c>
+      <c r="H24" s="383">
         <v>6202.8756487012124</v>
       </c>
-      <c r="I24" s="186">
+      <c r="I24" s="383">
         <v>323.95420978775047</v>
       </c>
-      <c r="J24" s="187">
-        <v>0</v>
-      </c>
-      <c r="K24" s="188">
+      <c r="J24" s="385">
+        <v>0</v>
+      </c>
+      <c r="K24" s="381">
         <f t="shared" si="0"/>
         <v>6526.8298584889626</v>
       </c>
@@ -15677,19 +15723,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="188"/>
-      <c r="G25" s="185">
-        <v>0</v>
-      </c>
-      <c r="H25" s="186">
-        <v>0</v>
-      </c>
-      <c r="I25" s="186">
+      <c r="G25" s="382">
+        <v>0</v>
+      </c>
+      <c r="H25" s="383">
+        <v>0</v>
+      </c>
+      <c r="I25" s="383">
         <v>12101.005476003347</v>
       </c>
-      <c r="J25" s="187">
-        <v>0</v>
-      </c>
-      <c r="K25" s="188">
+      <c r="J25" s="385">
+        <v>0</v>
+      </c>
+      <c r="K25" s="381">
         <f t="shared" si="0"/>
         <v>12101.005476003347</v>
       </c>
@@ -15743,19 +15789,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="188"/>
-      <c r="G26" s="185">
-        <v>0</v>
-      </c>
-      <c r="H26" s="186">
+      <c r="G26" s="382">
+        <v>0</v>
+      </c>
+      <c r="H26" s="383">
         <v>1552.9168402014129</v>
       </c>
-      <c r="I26" s="186">
-        <v>0</v>
-      </c>
-      <c r="J26" s="187">
-        <v>0</v>
-      </c>
-      <c r="K26" s="188">
+      <c r="I26" s="383">
+        <v>0</v>
+      </c>
+      <c r="J26" s="385">
+        <v>0</v>
+      </c>
+      <c r="K26" s="381">
         <f t="shared" si="0"/>
         <v>1552.9168402014129</v>
       </c>
@@ -15809,19 +15855,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="51"/>
-      <c r="G27" s="177">
-        <v>0</v>
-      </c>
-      <c r="H27" s="80">
-        <v>0</v>
-      </c>
-      <c r="I27" s="80">
+      <c r="G27" s="382">
+        <v>0</v>
+      </c>
+      <c r="H27" s="383">
+        <v>0</v>
+      </c>
+      <c r="I27" s="383">
         <v>1509.3753710859801</v>
       </c>
-      <c r="J27" s="178">
-        <v>0</v>
-      </c>
-      <c r="K27" s="51"/>
+      <c r="J27" s="385">
+        <v>0</v>
+      </c>
+      <c r="K27" s="381"/>
       <c r="L27" s="177">
         <v>0</v>
       </c>
@@ -15869,19 +15915,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="188"/>
-      <c r="G28" s="185">
+      <c r="G28" s="382">
         <v>2348.2938961606578</v>
       </c>
-      <c r="H28" s="186">
+      <c r="H28" s="383">
         <v>2598.9612057768859</v>
       </c>
-      <c r="I28" s="186">
-        <v>0</v>
-      </c>
-      <c r="J28" s="187">
-        <v>0</v>
-      </c>
-      <c r="K28" s="188">
+      <c r="I28" s="383">
+        <v>0</v>
+      </c>
+      <c r="J28" s="385">
+        <v>0</v>
+      </c>
+      <c r="K28" s="381">
         <f t="shared" si="0"/>
         <v>4947.2551019375442</v>
       </c>
@@ -15935,19 +15981,19 @@
         <v>870795.22255231685</v>
       </c>
       <c r="F29" s="51"/>
-      <c r="G29" s="177">
-        <v>0</v>
-      </c>
-      <c r="H29" s="80">
-        <v>0</v>
-      </c>
-      <c r="I29" s="80">
-        <v>0</v>
-      </c>
-      <c r="J29" s="178">
+      <c r="G29" s="382">
+        <v>0</v>
+      </c>
+      <c r="H29" s="383">
+        <v>0</v>
+      </c>
+      <c r="I29" s="383">
+        <v>0</v>
+      </c>
+      <c r="J29" s="385">
         <v>2558.5867585312421</v>
       </c>
-      <c r="K29" s="51"/>
+      <c r="K29" s="381"/>
       <c r="L29" s="177">
         <v>0</v>
       </c>
@@ -15995,19 +16041,19 @@
         <v>0</v>
       </c>
       <c r="F30" s="188"/>
-      <c r="G30" s="185">
+      <c r="G30" s="382">
         <v>1073.3303776065536</v>
       </c>
-      <c r="H30" s="186">
-        <v>0</v>
-      </c>
-      <c r="I30" s="186">
-        <v>0</v>
-      </c>
-      <c r="J30" s="187">
-        <v>0</v>
-      </c>
-      <c r="K30" s="188">
+      <c r="H30" s="383">
+        <v>0</v>
+      </c>
+      <c r="I30" s="383">
+        <v>0</v>
+      </c>
+      <c r="J30" s="385">
+        <v>0</v>
+      </c>
+      <c r="K30" s="381">
         <f t="shared" si="0"/>
         <v>1073.3303776065536</v>
       </c>
@@ -16061,19 +16107,19 @@
         <v>615551.47367487894</v>
       </c>
       <c r="F31" s="51"/>
-      <c r="G31" s="177">
-        <v>0</v>
-      </c>
-      <c r="H31" s="80">
+      <c r="G31" s="382">
+        <v>0</v>
+      </c>
+      <c r="H31" s="383">
         <v>597.95518625042405</v>
       </c>
-      <c r="I31" s="80">
+      <c r="I31" s="383">
         <v>365.41779286198164</v>
       </c>
-      <c r="J31" s="178">
+      <c r="J31" s="385">
         <v>1808.6248166621244</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="381"/>
       <c r="L31" s="177">
         <v>0</v>
       </c>
@@ -16121,19 +16167,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="188"/>
-      <c r="G32" s="185">
-        <v>0</v>
-      </c>
-      <c r="H32" s="186">
+      <c r="G32" s="382">
+        <v>0</v>
+      </c>
+      <c r="H32" s="383">
         <v>636.90412155866284</v>
       </c>
-      <c r="I32" s="186">
-        <v>0</v>
-      </c>
-      <c r="J32" s="187">
-        <v>0</v>
-      </c>
-      <c r="K32" s="188">
+      <c r="I32" s="383">
+        <v>0</v>
+      </c>
+      <c r="J32" s="385">
+        <v>0</v>
+      </c>
+      <c r="K32" s="381">
         <f t="shared" si="0"/>
         <v>636.90412155866284</v>
       </c>
@@ -16187,19 +16233,19 @@
         <v>0</v>
       </c>
       <c r="F33" s="188"/>
-      <c r="G33" s="185">
+      <c r="G33" s="382">
         <v>1198.2603838351683</v>
       </c>
-      <c r="H33" s="186">
+      <c r="H33" s="383">
         <v>3870.1900354958857</v>
       </c>
-      <c r="I33" s="186">
-        <v>0</v>
-      </c>
-      <c r="J33" s="187">
-        <v>0</v>
-      </c>
-      <c r="K33" s="188">
+      <c r="I33" s="383">
+        <v>0</v>
+      </c>
+      <c r="J33" s="385">
+        <v>0</v>
+      </c>
+      <c r="K33" s="381">
         <f t="shared" si="0"/>
         <v>5068.450419331054</v>
       </c>
@@ -16253,19 +16299,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="188"/>
-      <c r="G34" s="185">
+      <c r="G34" s="382">
         <v>422.18571865467715</v>
       </c>
-      <c r="H34" s="186">
+      <c r="H34" s="383">
         <v>167.39560329415426</v>
       </c>
-      <c r="I34" s="186">
-        <v>0</v>
-      </c>
-      <c r="J34" s="187">
-        <v>0</v>
-      </c>
-      <c r="K34" s="188">
+      <c r="I34" s="383">
+        <v>0</v>
+      </c>
+      <c r="J34" s="385">
+        <v>0</v>
+      </c>
+      <c r="K34" s="381">
         <f t="shared" si="0"/>
         <v>589.58132194883137</v>
       </c>
@@ -16319,19 +16365,19 @@
         <v>0</v>
       </c>
       <c r="F35" s="188"/>
-      <c r="G35" s="185">
-        <v>0</v>
-      </c>
-      <c r="H35" s="186">
+      <c r="G35" s="382">
+        <v>0</v>
+      </c>
+      <c r="H35" s="383">
         <v>3138.9514683971224</v>
       </c>
-      <c r="I35" s="186">
+      <c r="I35" s="383">
         <v>80.574057328704711</v>
       </c>
-      <c r="J35" s="187">
-        <v>0</v>
-      </c>
-      <c r="K35" s="188">
+      <c r="J35" s="385">
+        <v>0</v>
+      </c>
+      <c r="K35" s="381">
         <f t="shared" si="0"/>
         <v>3219.5255257258273</v>
       </c>
@@ -16385,19 +16431,19 @@
         <v>0</v>
       </c>
       <c r="F36" s="188"/>
-      <c r="G36" s="185">
+      <c r="G36" s="382">
         <v>922.51959005690981</v>
       </c>
-      <c r="H36" s="186">
+      <c r="H36" s="383">
         <v>623.04494176836852</v>
       </c>
-      <c r="I36" s="186">
-        <v>0</v>
-      </c>
-      <c r="J36" s="187">
-        <v>0</v>
-      </c>
-      <c r="K36" s="188">
+      <c r="I36" s="383">
+        <v>0</v>
+      </c>
+      <c r="J36" s="385">
+        <v>0</v>
+      </c>
+      <c r="K36" s="381">
         <f t="shared" si="0"/>
         <v>1545.5645318252782</v>
       </c>
@@ -16451,19 +16497,19 @@
         <v>0</v>
       </c>
       <c r="F37" s="188"/>
-      <c r="G37" s="185">
-        <v>0</v>
-      </c>
-      <c r="H37" s="186">
+      <c r="G37" s="382">
+        <v>0</v>
+      </c>
+      <c r="H37" s="383">
         <v>3043.0785532184341</v>
       </c>
-      <c r="I37" s="186">
-        <v>0</v>
-      </c>
-      <c r="J37" s="187">
-        <v>0</v>
-      </c>
-      <c r="K37" s="188">
+      <c r="I37" s="383">
+        <v>0</v>
+      </c>
+      <c r="J37" s="385">
+        <v>0</v>
+      </c>
+      <c r="K37" s="381">
         <f t="shared" si="0"/>
         <v>3043.0785532184341</v>
       </c>
@@ -16517,19 +16563,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="51"/>
-      <c r="G38" s="177">
+      <c r="G38" s="382">
         <v>3.509234476125227</v>
       </c>
-      <c r="H38" s="80">
+      <c r="H38" s="383">
         <v>1270.9365788947166</v>
       </c>
-      <c r="I38" s="80">
-        <v>0</v>
-      </c>
-      <c r="J38" s="178">
-        <v>0</v>
-      </c>
-      <c r="K38" s="51"/>
+      <c r="I38" s="383">
+        <v>0</v>
+      </c>
+      <c r="J38" s="385">
+        <v>0</v>
+      </c>
+      <c r="K38" s="381"/>
       <c r="L38" s="177">
         <v>7.9070900125073074</v>
       </c>
@@ -16567,11 +16613,11 @@
       <c r="D39" s="80"/>
       <c r="E39" s="178"/>
       <c r="F39" s="51"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="51"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="383"/>
+      <c r="I39" s="383"/>
+      <c r="J39" s="385"/>
+      <c r="K39" s="381"/>
       <c r="L39" s="177"/>
       <c r="M39" s="80"/>
       <c r="N39" s="80"/>
@@ -16603,19 +16649,19 @@
         <v>27335813.287456766</v>
       </c>
       <c r="F40" s="194"/>
-      <c r="G40" s="191">
+      <c r="G40" s="386">
         <v>7504.3794254731702</v>
       </c>
-      <c r="H40" s="192">
+      <c r="H40" s="387">
         <v>18931.570532810398</v>
       </c>
-      <c r="I40" s="192">
+      <c r="I40" s="387">
         <v>41548.200267734152</v>
       </c>
-      <c r="J40" s="193">
+      <c r="J40" s="389">
         <v>80318.59626649163</v>
       </c>
-      <c r="K40" s="51">
+      <c r="K40" s="381">
         <f t="shared" si="0"/>
         <v>148302.74649250935</v>
       </c>
@@ -16651,6 +16697,13 @@
         <f t="shared" si="1"/>
         <v>314742.158398773</v>
       </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G41" s="390"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="390"/>
+      <c r="J41" s="390"/>
+      <c r="K41" s="390"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16674,11 +16727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="359" t="s">
+      <c r="B1" s="376" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
     </row>
     <row r="2" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="256" t="s">
